--- a/output1.xlsx
+++ b/output1.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>221942</v>
+        <v>32.502</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11476</v>
+        <v>37.598</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>221942</v>
+        <v>26.141</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11136</v>
+        <v>36.015</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>221942</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24386</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17786</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>221942</v>
+        <v>27.734</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>221942</v>
+        <v>34.993</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>221942</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11136</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>221942</v>
+        <v>34.124</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>221942</v>
+        <v>37.598</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24386</v>
+        <v>32.453</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>219185</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>221942</v>
+        <v>23.208</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>29188</v>
+        <v>27.732</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>221942</v>
+        <v>21.804</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>165912</v>
+        <v>23.262</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>221942</v>
+        <v>18.499</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>221942</v>
+        <v>31.892</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>221942</v>
+        <v>22.208</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>222065</v>
+        <v>30.041</v>
       </c>
     </row>
     <row r="33">
@@ -926,7 +926,9 @@
           <t>MPPS NOMULARAJAIAHPALLY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>26.994</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -939,7 +941,9 @@
           <t>MPPS KATNAPALLY (SC)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -952,7 +956,9 @@
           <t>MPPS VEDURUGATTA (SC)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>21.493</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -965,7 +971,9 @@
           <t>MPPS NTR COLONY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -978,7 +986,9 @@
           <t>MPPS SAMBAIAHPALLY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -991,7 +1001,9 @@
           <t>MPPS MANGALAPALLY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1004,7 +1016,9 @@
           <t>MPPS KATNEPALLY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>22.208</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1017,7 +1031,9 @@
           <t>MPUPS REVELLY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1030,7 +1046,9 @@
           <t>MPPS CHOPPADANDI (BC)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>22.208</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1043,7 +1061,9 @@
           <t>MPUPS CHITYALAPALLY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1056,7 +1076,9 @@
           <t>MPPS KOLIMIKUNTA</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>17.915</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1069,7 +1091,9 @@
           <t>MPPS VEDURUGATTA</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>21.493</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1082,7 +1106,9 @@
           <t>MPPS CHAKUNTA</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>18.749</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1095,7 +1121,9 @@
           <t>MPPS RUKMAPUR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>15.547</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1108,7 +1136,9 @@
           <t>MPUPS BHUPALAPATNAM</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>23.486</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1121,7 +1151,9 @@
           <t>MPPS ARNAKONDA</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>25.675</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1134,7 +1166,9 @@
           <t>MPPS GUMLAPUR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1147,7 +1181,9 @@
           <t>MPPS CHOPPADANDI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v>22.208</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1160,7 +1196,9 @@
           <t>MPPS RAGAMPETA</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>21.804</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1173,7 +1211,9 @@
           <t>MPPS CHOPPADANDI (G)</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>22.208</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1186,7 +1226,9 @@
           <t>MPPS VAGODDU RAMANA PALLY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1199,7 +1241,9 @@
           <t>MPPS AVALA RAMAIAHPALY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1212,7 +1256,9 @@
           <t>MPPS KANAGARTHI (SC COLONY)</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1225,7 +1271,9 @@
           <t>MPPS SIRSEDU (SC COLONY)</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1238,7 +1286,9 @@
           <t>MPUPS LAXMAJIPALLY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1251,7 +1301,9 @@
           <t>MPPS GADDIVANIPALLI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1264,7 +1316,9 @@
           <t>MPPS TEKURTHI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1277,7 +1331,9 @@
           <t>MPPS BUJUNOOR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1290,7 +1346,9 @@
           <t>MPUPS CHINAKOMATIPALLY</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1303,7 +1361,9 @@
           <t>MPPS KANAGARTHI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1316,7 +1376,9 @@
           <t>MPPS LAXMANAPALLY</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1329,7 +1391,9 @@
           <t>MPUPS PATHARLAPALLY</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1342,7 +1406,9 @@
           <t>MPUPS VANTHADUPULA</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1355,7 +1421,9 @@
           <t>MPUPS SRIRAMULAPALLI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1368,7 +1436,9 @@
           <t>MPPS SEETAMPET</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1381,7 +1451,9 @@
           <t>MPPS RACHAPALLY</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1394,7 +1466,9 @@
           <t>MPPS SIRSEDU</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1407,7 +1481,9 @@
           <t>MPPS MALLIAL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1420,7 +1496,9 @@
           <t>MPPS ELLANTHAKUNTA</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>36.962</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1433,7 +1511,11 @@
           <t>MPUPS KONDANNAPALLI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1446,7 +1528,11 @@
           <t>MPPS MARRIGADDA</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1459,7 +1545,9 @@
           <t>MPUPS NARSIMULAPALLI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>77.67</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1472,7 +1560,11 @@
           <t>MPPS ISTARPALLY</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1485,7 +1577,11 @@
           <t>MPUPS HIMMATHNAGAR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1498,7 +1594,9 @@
           <t>MPUPS NARAYANPUR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>419.846</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1511,7 +1609,9 @@
           <t>MPUPS ACHAMPALLY</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>19.269</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1524,7 +1624,11 @@
           <t>MPPS ISLAMPURM</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1537,7 +1641,9 @@
           <t>MPUPS CHERLAPALLY</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>161.991</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1550,7 +1656,11 @@
           <t>MPPS RANGA RAO PALLY</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1563,7 +1673,11 @@
           <t>MPUPS KASARAM</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1576,7 +1690,9 @@
           <t>MPPS LAXMIDEVIPALLY</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>230.933</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1589,7 +1705,11 @@
           <t>MPUPS KONDAIPALLY</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1602,7 +1722,11 @@
           <t>MPPS TADIJERRI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1615,7 +1739,11 @@
           <t>MPPS NAYALAKONDAPALLY</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1628,7 +1756,11 @@
           <t>MPPS PATTIKUNTAPALLY</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1641,7 +1773,9 @@
           <t>MPUPS NAGIREDDIPUR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>29.007</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1654,7 +1788,9 @@
           <t>MPPS MANGAPETA</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>184.508</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1667,7 +1803,9 @@
           <t>MPPS GARSHAKURTHI (KW)</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>20.521</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1680,7 +1818,11 @@
           <t>MPUPS VENKATAIAPALLY</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1693,7 +1835,11 @@
           <t>MPPS KACHIREDDIPALLI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1706,7 +1852,11 @@
           <t>MPUPS RYALAPALLY</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1719,7 +1869,11 @@
           <t>MPPS GANGADHARA</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1732,7 +1886,11 @@
           <t>MPPS GATTUBUTHKUR</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1745,7 +1903,9 @@
           <t>MPPS MALLAPUR</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>165.912</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1758,7 +1918,11 @@
           <t>MPPS ODYARAM</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1771,7 +1935,9 @@
           <t>MPPS UPPERMALLIAL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>22.351</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1784,7 +1950,9 @@
           <t>MPPS KURIKIAL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>20.667</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1797,7 +1965,9 @@
           <t>MPPS GARSHAKURTHI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>20.521</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1810,7 +1980,9 @@
           <t>MPPS BURUGUPALLI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>497.272</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1823,7 +1995,11 @@
           <t>MPPS MOTHUKULAPALLY</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1836,7 +2012,11 @@
           <t>MPUPS RANGANAYAKAPALLY</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1849,7 +2029,11 @@
           <t>MPPS CHAKALVANIPALLY</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1862,7 +2046,9 @@
           <t>MPPS CHEEMALAKUNTAPALLY</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>32.759</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1875,7 +2061,9 @@
           <t>MPPS MADHAPUR</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>31.138</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1888,7 +2076,9 @@
           <t>MPUPS GUNKULKONDAPUR</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>341.98</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1901,7 +2091,11 @@
           <t>MPUPS PARVELLA</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1914,7 +2108,9 @@
           <t>MPUPS KASIMPET</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>38.141</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1927,7 +2123,9 @@
           <t>MPUPS MYLARAM</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>35.905</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1940,7 +2138,9 @@
           <t>MPPS JANGAPALLY</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>32.06</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1953,7 +2153,11 @@
           <t>MPPS HANMAJIPALLY</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1966,7 +2170,9 @@
           <t>MPPS GANNERUVARAM</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>31.138</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1979,7 +2185,9 @@
           <t>MPPS CHINNAPAPAIAHPALLY</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1992,7 +2200,9 @@
           <t>MPPS SHALAPALLY</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2005,7 +2215,9 @@
           <t>MPPS (UM) ISLAMPURA,HUZURABAD</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2018,7 +2230,9 @@
           <t>MPPS SC KANDUGULA DPEP</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2031,7 +2245,9 @@
           <t>MPPS THOKALAPALLY</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2044,7 +2260,9 @@
           <t>MPPS IPPALAPALLY</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2057,7 +2275,9 @@
           <t>MPUPS THUMMENA PALLY</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2070,7 +2290,9 @@
           <t>MPPS KC CAMP</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>46.508</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2083,7 +2305,9 @@
           <t>MPPS PEDDA PAPAIAH PALLY</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>47.335</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2096,7 +2320,9 @@
           <t>MPPS PRATHAPAWADA</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>44.675</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2109,7 +2335,9 @@
           <t>MPPS RAMPOOR</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2122,7 +2350,9 @@
           <t>MPPS DHARMARAJUPALLY</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2135,7 +2365,9 @@
           <t>MPPS KOTHAPALLY</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2148,7 +2380,9 @@
           <t>MPPS SIRSAPALLY (SC)</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2161,7 +2395,9 @@
           <t>MPPS (UM) HUZURABAD</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2174,7 +2410,9 @@
           <t>MPUPS RANGAPUR</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2187,7 +2425,9 @@
           <t>MPPS SC COL CHELPUR DPEP</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2200,7 +2440,9 @@
           <t>MPUPS INDIRANAGAR,KOTHAPALLY</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2213,7 +2455,9 @@
           <t>MPPS DEPEP PEDDAPAPAIAHPALLY</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2226,7 +2470,9 @@
           <t>MPPS KANKULAGIDDA</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="n">
+        <v>47.277</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2239,7 +2485,9 @@
           <t>MPPS SIRSAPALLY</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="C134" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2252,7 +2500,9 @@
           <t>MPPS VENKATRAOPALLY</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
+      <c r="C135" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2265,7 +2515,9 @@
           <t>MPPS JUPAKA</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
+      <c r="C136" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2278,7 +2530,9 @@
           <t>MPPS TENUGUWADA</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2291,7 +2545,9 @@
           <t>MPPS GANESHNAGAR,HUZURABAD</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2304,7 +2560,9 @@
           <t>MPPS INDIRA NAGAR</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2317,7 +2575,9 @@
           <t>MPUPS  IPPAL NARSINGAPUR</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="n">
+        <v>44.54</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2330,7 +2590,9 @@
           <t>MPPS RAJAPALLY</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
+      <c r="C141" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2343,7 +2605,9 @@
           <t>GOVT. PS HUZURABAD</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2356,7 +2620,9 @@
           <t>MPPS SINGAPUR</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="C143" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2369,7 +2635,9 @@
           <t>MPPS GANDHINAGAR,HUZURABAD</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>43.991</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2382,7 +2650,9 @@
           <t>MPPS BORNAPALLY</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2395,7 +2665,9 @@
           <t>MPUPS POTHAREDDIPETA</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2408,7 +2680,9 @@
           <t>MPPS CHELPUR</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
+      <c r="C147" t="n">
+        <v>50.996</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2421,7 +2695,9 @@
           <t>MPUPS KATRAPALLY</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2434,7 +2710,9 @@
           <t>MPPS KANDUGULA</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="n">
+        <v>56.768</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2447,7 +2725,9 @@
           <t>MPUPS HUZURABAD</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="n">
+        <v>43.596</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2460,7 +2740,9 @@
           <t>MPPS KAPULAPALLY</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="n">
+        <v>7.258</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2473,7 +2755,9 @@
           <t>MPPS GOVINDAPOOR</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2486,7 +2770,9 @@
           <t>MPPS PAPAKKAPALLI</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="n">
+        <v>5.548</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2499,7 +2785,9 @@
           <t>MPPS DHARMARAM S C COL</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="n">
+        <v>7.123</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2512,7 +2800,9 @@
           <t>MPPS PAPAIAHPALLI</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
+      <c r="C155" t="n">
+        <v>7.123</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2525,7 +2815,9 @@
           <t>MPPS ANKUSAPOOR</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="n">
+        <v>3.948</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2538,7 +2830,9 @@
           <t>MPPS KESHAVAPOOR</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
+      <c r="C157" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2551,7 +2845,9 @@
           <t>MPPS GOPALPURAM</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr"/>
+      <c r="C158" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2564,7 +2860,9 @@
           <t>MPPS RANGAMMAPALLY</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="n">
+        <v>28.933</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2577,7 +2875,9 @@
           <t>MPPS JAMMIKUNTA ABADI SC COL</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2590,7 +2890,9 @@
           <t>MPPS NAGURAM</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2603,7 +2905,9 @@
           <t>MPPS ODDERA COLONY</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2616,7 +2920,9 @@
           <t>MPPS JAMMIKUNTA ABADI (GIRLS)</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2629,7 +2935,9 @@
           <t>MPPS PEDDAMPALLY</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" t="n">
+        <v>11.657</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2642,7 +2950,9 @@
           <t>MPPS JAMMIKUNTA ABADI (BOYS)</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
+      <c r="C165" t="n">
+        <v>6.43</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2655,7 +2965,9 @@
           <t>MPPS VENKATESWARLAPALLY</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2668,7 +2980,9 @@
           <t>MPUPS SAYAMPET</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
+      <c r="C167" t="n">
+        <v>4.839</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2681,7 +2995,9 @@
           <t>MPPS AMBEDKAR COLONY</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
+      <c r="C168" t="n">
+        <v>88.764</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2694,7 +3010,9 @@
           <t>MPPS CHURCH COLONY</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2707,7 +3025,9 @@
           <t>MPPS RAMANNAPALLY</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2720,7 +3040,9 @@
           <t>MPPS SHAMBUNIPALLI</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="n">
+        <v>7.123</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2733,7 +3055,9 @@
           <t>MPPS VAVILALA</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="n">
+        <v>2.531</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2746,7 +3070,9 @@
           <t>MPUPS SAIDABAD</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2759,7 +3085,9 @@
           <t>MPPS NAGAMPET</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="n">
+        <v>5.646</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2772,7 +3100,9 @@
           <t>MPPS JAMMIKUNTA STATION (UM)</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="n">
+        <v>3.681</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2785,7 +3115,9 @@
           <t>MPPS BIJIGIRISHARIF</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="n">
+        <v>4.326</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2798,7 +3130,9 @@
           <t>MPUPS VILASAGAR</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2811,7 +3145,9 @@
           <t>MPUPS DHARMARAM</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="n">
+        <v>2.525</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2824,7 +3160,9 @@
           <t>MPPS MADIPALLI</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="n">
+        <v>5.565</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2837,7 +3175,9 @@
           <t>MPPS MOTHUKULA  GUDEM</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2850,7 +3190,9 @@
           <t>MPPS KOTHAPALLI</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="n">
+        <v>2.528</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2863,7 +3205,9 @@
           <t>MPPS THANUGULA</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2876,7 +3220,9 @@
           <t>MPPS JAMMIKUNTA STATION (BOYS)</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" t="n">
+        <v>5.352</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2889,7 +3235,9 @@
           <t>MPPS KORAPALLY</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2902,7 +3250,9 @@
           <t>MPPS JAMMIKUNTA STATION (GIRLS)</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="n">
+        <v>6.052</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2915,7 +3265,9 @@
           <t>MPUPS MACHANAPALLY</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" t="n">
+        <v>1.761</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2928,7 +3280,9 @@
           <t>MPPS VALLAMPAHAD</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2941,7 +3295,9 @@
           <t>MPPS SANTOSH NAGAR</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr"/>
+      <c r="C188" t="n">
+        <v>1.401</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2954,7 +3310,9 @@
           <t>GOVT. PS KUMARWADI</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" t="n">
+        <v>0.776</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2967,7 +3325,9 @@
           <t>MPPS (SC) ALUGUNUR</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="n">
+        <v>3.865</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2980,7 +3340,9 @@
           <t>MPPS ALUGUNUR (KK CLNY)</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="n">
+        <v>1.079</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2993,7 +3355,9 @@
           <t>GOVT. PS BOIWADA</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3006,7 +3370,9 @@
           <t>MPPS SHAIKAN NAGAR</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="n">
+        <v>4.224</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3019,7 +3385,9 @@
           <t>GOVT. PS CHANDRAPUR COLONY</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3032,7 +3400,9 @@
           <t>GOVT. PS MARKANDEYA NAGAR</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" t="n">
+        <v>4.727</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3045,7 +3415,9 @@
           <t>GOVT. PS KHANPURA</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
+      <c r="C196" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3058,7 +3430,9 @@
           <t>GOVT. PS FAKHERNAGAR</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>5.055</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3071,7 +3445,9 @@
           <t>MPPS SADASHIVAPALLY</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr"/>
+      <c r="C198" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3084,7 +3460,9 @@
           <t>GOVT. PS KOTHYASWADA</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="n">
+        <v>18.141</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3097,7 +3475,9 @@
           <t>GOVT. PS LAXMINAGAR</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3110,7 +3490,9 @@
           <t>MPPS REKURTHI</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3123,7 +3505,9 @@
           <t>GOVT. PS HINDUPOOR</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>17.91</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3136,7 +3520,9 @@
           <t>GOVT. PS KATTARAMPUR</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3149,7 +3535,9 @@
           <t>MPPS SEETHARAMPUR</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3162,7 +3550,9 @@
           <t>GOVT. PS GOWTHAM NAGAR</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3175,7 +3565,9 @@
           <t>GOVT. PS GURUDWARA</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" t="n">
+        <v>16.62</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3188,7 +3580,9 @@
           <t>MPPS ALUGUNUR</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="n">
+        <v>3.048</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3201,7 +3595,9 @@
           <t>GOVT. PS PADMANAGAR</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr"/>
+      <c r="C208" t="n">
+        <v>18.141</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3214,7 +3610,9 @@
           <t>GOVT. PS VAVILLAPALLY</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="n">
+        <v>15.219</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3227,7 +3625,9 @@
           <t>GOVT. PS KAPUWADA</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="n">
+        <v>12.532</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3240,7 +3640,9 @@
           <t>GOVT. PS (G) DR.STREET</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="n">
+        <v>67.411</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3253,7 +3655,9 @@
           <t>GOVT. PS SHAHSAHEB</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr"/>
+      <c r="C212" t="n">
+        <v>43.909</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3266,7 +3670,9 @@
           <t>GOVT. UPS AMEERNAGAR</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="n">
+        <v>3.054</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3279,7 +3685,9 @@
           <t>GOVT. PS POLICE LINE (BHAGATH NAGAR)</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" t="n">
+        <v>11.777</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3292,7 +3700,9 @@
           <t>GOVT. PS SUBHASH NAGR</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr"/>
+      <c r="C215" t="n">
+        <v>15.219</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3305,7 +3715,9 @@
           <t>MPPS SHAIKABHI COLONY</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" t="n">
+        <v>3.048</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3318,7 +3730,9 @@
           <t>GOVT. PS MUKARAMPURA</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="n">
+        <v>14.368</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3331,7 +3745,9 @@
           <t>GOVT. PS HOUSING BOARD</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="n">
+        <v>3.048</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3344,7 +3760,9 @@
           <t>MPPS SALEHNAGAR (UM)</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr"/>
+      <c r="C219" t="n">
+        <v>166.552</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3357,7 +3775,9 @@
           <t>GOVT. PS SAWARAM STREET</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3370,7 +3790,9 @@
           <t>MPPS AREPALLI</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3383,7 +3805,9 @@
           <t>GOVT. PS DHANGARWADI</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr"/>
+      <c r="C222" t="n">
+        <v>464.981</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3396,7 +3820,9 @@
           <t>MPPS THEEGALAGUTTAPALLY</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" t="n">
+        <v>514.688</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3409,7 +3835,9 @@
           <t>GOVT. PS SRINAGAR COLONY</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3422,7 +3850,9 @@
           <t>GOVT. PS RAMNAGAR</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="n">
+        <v>58.282</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3435,7 +3865,9 @@
           <t>GOVT. PS KAMAN ROAD</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3448,7 +3880,9 @@
           <t>GOVT. PS MANKAMMA THOTA</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3461,7 +3895,9 @@
           <t>GOVT. PS DURGAMMA GADDA</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3474,7 +3910,9 @@
           <t>GOVT. PS HANUMAN ROAD</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3487,7 +3925,9 @@
           <t>GOVT. PS POCHAMPALLY</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" t="n">
+        <v>58.282</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3500,7 +3940,11 @@
           <t>GOVT. PS KHARKHANAGADDA</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3513,7 +3957,9 @@
           <t>MPPS FAKIRPET</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3526,7 +3972,9 @@
           <t>MPPS LAXMI NAGAR</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="n">
+        <v>166.552</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3539,7 +3987,9 @@
           <t>MPPS GOPALPOOR (HW)</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3552,7 +4002,9 @@
           <t>MPPS MAQDUMPUR(HW)</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>514.688</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3565,7 +4017,11 @@
           <t>MPPS BAHADURKHANPET</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3578,7 +4034,9 @@
           <t>MPPS DUBBAPALLY</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
+      <c r="C237" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3591,7 +4049,9 @@
           <t>MPUPS CHEGURTI</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
+      <c r="C238" t="n">
+        <v>464.981</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3604,7 +4064,9 @@
           <t>MPPS NALLAGUNTAPALLY</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
+      <c r="C239" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3617,7 +4079,9 @@
           <t>MPPS GOKULNAGAR</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
+      <c r="C240" t="n">
+        <v>544.063</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3630,7 +4094,9 @@
           <t>MPPS CHAMANPALLY (HW)</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr"/>
+      <c r="C241" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3643,7 +4109,11 @@
           <t>MPUPS IRUKULLA</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3656,7 +4126,9 @@
           <t>MPUPS GOPALPOOR</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="n">
+        <v>31.458</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3669,7 +4141,9 @@
           <t>MPPS MAQDUMPUR</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr"/>
+      <c r="C244" t="n">
+        <v>27.199</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3682,7 +4156,9 @@
           <t>MPPS DURSHED (HW)</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3695,7 +4171,9 @@
           <t>MPPS JUBLINAGAR</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr"/>
+      <c r="C246" t="n">
+        <v>27.115</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3708,7 +4186,9 @@
           <t>MPUPS GUNTURPALLY</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr"/>
+      <c r="C247" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3721,7 +4201,9 @@
           <t>MPUPS ELABOTHARAM</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr"/>
+      <c r="C248" t="n">
+        <v>219.608</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3734,7 +4216,9 @@
           <t>MPPS PRIYADARSHINI COL</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr"/>
+      <c r="C249" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3747,7 +4231,9 @@
           <t>MPPS BOMMAKAL</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="n">
+        <v>23.72</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3760,7 +4246,9 @@
           <t>MPPS DURSHED</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr"/>
+      <c r="C251" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3773,7 +4261,9 @@
           <t>MPUPS CHERLABUTHKUR</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr"/>
+      <c r="C252" t="n">
+        <v>23.753</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3786,7 +4276,9 @@
           <t>MPPS NAGUNUR</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr"/>
+      <c r="C253" t="n">
+        <v>27.199</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3799,7 +4291,9 @@
           <t>MPUPS CHAMANPALLY</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr"/>
+      <c r="C254" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3812,7 +4306,9 @@
           <t>MPPS ASIFNAGAR (HW)</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr"/>
+      <c r="C255" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -3825,7 +4321,9 @@
           <t>MPPS REDDIRAMAIAHPALLE</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr"/>
+      <c r="C256" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3838,7 +4336,9 @@
           <t>MPPS GOSHIKWADA</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr"/>
+      <c r="C257" t="n">
+        <v>25.406</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3851,7 +4351,9 @@
           <t>MPPS KOTHAPALLI  (UM)</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr"/>
+      <c r="C258" t="n">
+        <v>19.396</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3864,7 +4366,9 @@
           <t>MPPS MALKAPUR (H.W)</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr"/>
+      <c r="C259" t="n">
+        <v>12.621</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3877,7 +4381,9 @@
           <t>MPPS KAMNPUR (HW)</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr"/>
+      <c r="C260" t="n">
+        <v>22.642</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3890,7 +4396,9 @@
           <t>MPPS KAMANPUR</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr"/>
+      <c r="C261" t="n">
+        <v>28.893</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3903,7 +4411,9 @@
           <t>MPPS KHAJIPUR</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr"/>
+      <c r="C262" t="n">
+        <v>15.85</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3916,7 +4426,9 @@
           <t>MPUPS BADDIPALLY</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr"/>
+      <c r="C263" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3929,7 +4441,9 @@
           <t>MPPS ELGANAL (HW)</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr"/>
+      <c r="C264" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3942,7 +4456,9 @@
           <t>MPPS ELGANDAL</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr"/>
+      <c r="C265" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3955,7 +4471,9 @@
           <t>MPPS KAMANPUR (OC)</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr"/>
+      <c r="C266" t="n">
+        <v>13.577</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -3968,7 +4486,9 @@
           <t>MPPS T R K NAGAR</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
+      <c r="C267" t="n">
+        <v>23.72</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3981,7 +4501,9 @@
           <t>MPPS NAGULAMALIAL</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
+      <c r="C268" t="n">
+        <v>31.458</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3994,7 +4516,9 @@
           <t>MPPS ASIFNAGAR</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr"/>
+      <c r="C269" t="n">
+        <v>12.621</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4007,7 +4531,9 @@
           <t>MPPS LAXMIPUR</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="n">
+        <v>23.979</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -4020,7 +4546,9 @@
           <t>MPPS MALKAPUR</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr"/>
+      <c r="C271" t="n">
+        <v>27.199</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4033,7 +4561,9 @@
           <t>MPPS GANDHI NAGAR</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="n">
+        <v>25.536</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4046,7 +4576,9 @@
           <t>MPPS TAMIL COLONY</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr"/>
+      <c r="C273" t="n">
+        <v>20.173</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -4059,7 +4591,9 @@
           <t>MPPS KOTHAPALLI  (TM)</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
+      <c r="C274" t="n">
+        <v>21.708</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4072,7 +4606,11 @@
           <t>MPPS SHANTHI NAGAR.</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -4085,7 +4623,9 @@
           <t>MPPS CHINTAKUNTA</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr"/>
+      <c r="C276" t="n">
+        <v>18.982</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4098,7 +4638,9 @@
           <t>MPPS THOTAKUNTAPALLI</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr"/>
+      <c r="C277" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -4111,7 +4653,9 @@
           <t>MPPS LAXMIPOOR (SC)</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C278" t="n">
+        <v>17.036</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -4124,7 +4668,9 @@
           <t>MPPS VEGURUPALLY (SC)</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr"/>
+      <c r="C279" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -4137,7 +4683,9 @@
           <t>MPPS KONDAPALKALA (SC)</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr"/>
+      <c r="C280" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -4150,7 +4698,9 @@
           <t>MPPS BANJERUPALLY</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr"/>
+      <c r="C281" t="n">
+        <v>11.313</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -4163,7 +4713,9 @@
           <t>MPPS LAXMIPUR</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr"/>
+      <c r="C282" t="n">
+        <v>18.655</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -4176,7 +4728,9 @@
           <t>MPPS RAGHAVAPOOR</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr"/>
+      <c r="C283" t="n">
+        <v>28.893</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4189,7 +4743,9 @@
           <t>MPPS SHAMSHABAD</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr"/>
+      <c r="C284" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -4202,7 +4758,9 @@
           <t>MPPS NIJAYITHIGUDEM</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr"/>
+      <c r="C285" t="n">
+        <v>29.041</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4215,7 +4773,9 @@
           <t>MPPS GANGIPALLI</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr"/>
+      <c r="C286" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -4228,7 +4788,9 @@
           <t>MPPS MANAKONDUR (SC)</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr"/>
+      <c r="C287" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -4241,7 +4803,9 @@
           <t>MPPS GANGIPALLI (SC)</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr"/>
+      <c r="C288" t="n">
+        <v>756.29</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -4254,7 +4818,9 @@
           <t>MPPS KONDAPALKALA</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr"/>
+      <c r="C289" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -4267,7 +4833,9 @@
           <t>MPPS PEDDURPALLY</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr"/>
+      <c r="C290" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -4280,7 +4848,9 @@
           <t>MPPS GOLLAPALLY</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr"/>
+      <c r="C291" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -4293,7 +4863,9 @@
           <t>MPUPS EDULAGATTAPALLY</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr"/>
+      <c r="C292" t="n">
+        <v>18.32</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -4306,7 +4878,9 @@
           <t>MPPS MADDIKUNTA</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr"/>
+      <c r="C293" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -4319,7 +4893,9 @@
           <t>MPPS LALITHAPUR</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr"/>
+      <c r="C294" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -4332,7 +4908,9 @@
           <t>MPPS PACHUNUR</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr"/>
+      <c r="C295" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -4345,7 +4923,9 @@
           <t>MPPS VELDI</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr"/>
+      <c r="C296" t="n">
+        <v>11.116</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -4358,7 +4938,9 @@
           <t>MPPS UTOOR (SC)</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr"/>
+      <c r="C297" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4371,7 +4953,9 @@
           <t>MPPS JAGGAIAHPALLY</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
+      <c r="C298" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4384,7 +4968,9 @@
           <t>MPPS SRINIVASANAGAR</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>13.983</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4397,7 +4983,9 @@
           <t>MPPS POCHAMPALLY</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr"/>
+      <c r="C300" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4410,7 +4998,9 @@
           <t>MPPS KHADARGUDEM</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr"/>
+      <c r="C301" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4423,7 +5013,9 @@
           <t>MPPS MUNJAMPALLY</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr"/>
+      <c r="C302" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4436,7 +5028,9 @@
           <t>MPPS THENUGUPALLY, GANGIPALLY</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr"/>
+      <c r="C303" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4449,7 +5043,9 @@
           <t>MPPS VEGURUPALLY</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr"/>
+      <c r="C304" t="n">
+        <v>12.386</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4462,7 +5058,11 @@
           <t>MPPS PACHUNUR (SC)</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4475,7 +5075,9 @@
           <t>MPUPS KELLEDU</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr"/>
+      <c r="C306" t="n">
+        <v>21.86</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4488,7 +5090,9 @@
           <t>MPPS TENUGUPALLY, KONDAPALKALA</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr"/>
+      <c r="C307" t="n">
+        <v>13.538</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4501,7 +5105,9 @@
           <t>MPPS VANNARAM</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr"/>
+      <c r="C308" t="n">
+        <v>18.422</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4514,7 +5120,11 @@
           <t>MPPS RANGAPET</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr"/>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4527,7 +5137,9 @@
           <t>MPPS DEVAMPALLY</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr"/>
+      <c r="C310" t="n">
+        <v>345.86</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -4540,7 +5152,9 @@
           <t>MPPS VELDI (SC)</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr"/>
+      <c r="C311" t="n">
+        <v>70.974</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -4553,7 +5167,9 @@
           <t>MPUPS LINGAPUR</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
+      <c r="C312" t="n">
+        <v>178.703</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4566,7 +5182,9 @@
           <t>MPPS RAJEEVNAGAR COLONY</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr"/>
+      <c r="C313" t="n">
+        <v>392.586</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -4579,7 +5197,11 @@
           <t>MPPS ANNARAM</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr"/>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4592,7 +5214,11 @@
           <t>MPPS MANAKONDUR</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -4605,7 +5231,9 @@
           <t>MPPS YADAVA NAGAR</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr"/>
+      <c r="C316" t="n">
+        <v>106.253</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4618,7 +5246,9 @@
           <t>MPPS GATTUDUDDENAPALLI</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr"/>
+      <c r="C317" t="n">
+        <v>41.444</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4631,7 +5261,11 @@
           <t>MPPS CHENJARLA</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -4644,7 +5278,9 @@
           <t>MPPS UTOOR</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr"/>
+      <c r="C319" t="n">
+        <v>392.586</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -4657,7 +5293,9 @@
           <t>MPPS NEW PS RAMADUGU</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr"/>
+      <c r="C320" t="n">
+        <v>392.586</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -4670,7 +5308,11 @@
           <t>MPPS SRIRAMULAPALLI</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -4683,7 +5325,11 @@
           <t>MPPS KISTARAOPALLI</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -4696,7 +5342,9 @@
           <t>MPPS SHANAGAR</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr"/>
+      <c r="C323" t="n">
+        <v>191.648</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -4709,7 +5357,11 @@
           <t>MPPS RAJAJINAGAR</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4722,7 +5374,9 @@
           <t>MPPS KARUPAKALAPALLY</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr"/>
+      <c r="C325" t="n">
+        <v>392.586</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -4735,7 +5389,9 @@
           <t>MPPS KOLLURIPALLY</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr"/>
+      <c r="C326" t="n">
+        <v>209.123</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -4748,7 +5404,9 @@
           <t>MPPS GUDDELUGULAPALLY</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr"/>
+      <c r="C327" t="n">
+        <v>72.724</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -4761,7 +5419,9 @@
           <t>MPPS RANGASAIPALLI</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr"/>
+      <c r="C328" t="n">
+        <v>1395.787</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4774,7 +5434,9 @@
           <t>MPPS RAMCHANDRAPOOR</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr"/>
+      <c r="C329" t="n">
+        <v>117.531</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -4787,7 +5449,9 @@
           <t>MPPS MOTHE</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr"/>
+      <c r="C330" t="n">
+        <v>78.84999999999999</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -4800,7 +5464,11 @@
           <t>MPUPS THIRMALAPOOR</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -4813,7 +5481,9 @@
           <t>MPUPS KOKKERAKUNTA</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr"/>
+      <c r="C332" t="n">
+        <v>41.06</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -4826,7 +5496,9 @@
           <t>MPPS RUDRARAM</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr"/>
+      <c r="C333" t="n">
+        <v>44.037</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -4839,7 +5511,9 @@
           <t>MPPS LAXMIPUR</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr"/>
+      <c r="C334" t="n">
+        <v>43.909</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -4852,7 +5526,11 @@
           <t>MPPS VELICHALA</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -4865,7 +5543,9 @@
           <t>MPUPS VENKATRAOPALLI</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr"/>
+      <c r="C336" t="n">
+        <v>392.586</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -4878,7 +5558,9 @@
           <t>MPPS CHIPPAKURTHI</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr"/>
+      <c r="C337" t="n">
+        <v>169.081</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -4891,7 +5573,9 @@
           <t>MPPS PANDIKUNTAPALLI</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
+      <c r="C338" t="n">
+        <v>392.586</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -4904,7 +5588,9 @@
           <t>MPPS VEDIRA</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr"/>
+      <c r="C339" t="n">
+        <v>179.289</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -4917,7 +5603,11 @@
           <t>MPUPS VANNARAM</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -4930,7 +5620,9 @@
           <t>MPPS GUNDI</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr"/>
+      <c r="C341" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -4943,7 +5635,9 @@
           <t>MPPS RAMADUGU</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr"/>
+      <c r="C342" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -4956,7 +5650,9 @@
           <t>MPPS DESHRAJPALLE</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr"/>
+      <c r="C343" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -4969,7 +5665,9 @@
           <t>MPPS GOPALRAOPET</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr"/>
+      <c r="C344" t="n">
+        <v>24.2</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -4982,7 +5680,9 @@
           <t>MPPS BUDIDHIPALLY</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
+      <c r="C345" t="n">
+        <v>24.2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -4995,7 +5695,9 @@
           <t>MPPS (BC COL)AKUNUR</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr"/>
+      <c r="C346" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -5008,7 +5710,9 @@
           <t>MPPS (SC COL)RAIKAL</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr"/>
+      <c r="C347" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -5021,7 +5725,9 @@
           <t>MPPS SHIVARAMPALLY</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr"/>
+      <c r="C348" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -5034,7 +5740,9 @@
           <t>MPPS KOTHA VENNAMPALLY</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr"/>
+      <c r="C349" t="n">
+        <v>34.446</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -5047,7 +5755,9 @@
           <t>MPPS NALLANI THANDA</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr"/>
+      <c r="C350" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -5060,7 +5770,9 @@
           <t>MPPS SARVAIPET</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr"/>
+      <c r="C351" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -5073,7 +5785,9 @@
           <t>MPPS PERKAPALLY</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr"/>
+      <c r="C352" t="n">
+        <v>34.446</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -5086,7 +5800,9 @@
           <t>MPPS JAGIRPALLY</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr"/>
+      <c r="C353" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -5099,7 +5815,9 @@
           <t>MPPS LASMANAPALLY</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr"/>
+      <c r="C354" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -5112,7 +5830,9 @@
           <t>MPPS GUJJULAPALLY</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr"/>
+      <c r="C355" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -5125,7 +5845,9 @@
           <t>MPPS SAIDAPUR</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr"/>
+      <c r="C356" t="n">
+        <v>357.591</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -5138,7 +5860,9 @@
           <t>MPPS CKR. PALLY</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr"/>
+      <c r="C357" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -5151,7 +5875,9 @@
           <t>MPPS EKLASPUR (SC)</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr"/>
+      <c r="C358" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -5164,7 +5890,9 @@
           <t>MPPS GUNDLAPALLY</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr"/>
+      <c r="C359" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -5177,7 +5905,9 @@
           <t>MPPS AMMANAGURTHY</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr"/>
+      <c r="C360" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -5190,7 +5920,9 @@
           <t>MPPS BOMMAKAL</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr"/>
+      <c r="C361" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -5203,7 +5935,9 @@
           <t>MPPS GOLLAGUDEM</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr"/>
+      <c r="C362" t="n">
+        <v>20.512</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -5216,7 +5950,9 @@
           <t>MPPS RAIKAL</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr"/>
+      <c r="C363" t="n">
+        <v>29.332</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -5229,7 +5965,9 @@
           <t>MPPS RAMCHANDRAPUR</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr"/>
+      <c r="C364" t="n">
+        <v>34.446</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -5242,7 +5980,9 @@
           <t>MPPS SOMARAM</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr"/>
+      <c r="C365" t="n">
+        <v>30.924</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -5255,7 +5995,9 @@
           <t>MPPS AREPALLY</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr"/>
+      <c r="C366" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -5268,7 +6010,9 @@
           <t>MPPS KOMMUPALLY</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr"/>
+      <c r="C367" t="n">
+        <v>32.26</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -5281,7 +6025,9 @@
           <t>MPPS DUDDENAPALLY</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr"/>
+      <c r="C368" t="n">
+        <v>32.679</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -5294,7 +6040,9 @@
           <t>MPPS AKUNUR</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr"/>
+      <c r="C369" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -5307,7 +6055,9 @@
           <t>MPPS ELABOTHARAM</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr"/>
+      <c r="C370" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -5320,7 +6070,9 @@
           <t>MPPS GHANPUR</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr"/>
+      <c r="C371" t="n">
+        <v>30.924</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -5333,7 +6085,9 @@
           <t>MPPS VENKATESHWARLAPALLY</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr"/>
+      <c r="C372" t="n">
+        <v>30.123</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -5346,7 +6100,9 @@
           <t>MPPS EKLASPUR</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr"/>
+      <c r="C373" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -5359,7 +6115,9 @@
           <t>MPPS VENNAMPALLY</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr"/>
+      <c r="C374" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -5372,7 +6130,9 @@
           <t>MPPS VENKEPALLE</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr"/>
+      <c r="C375" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -5385,7 +6145,9 @@
           <t>MPPS GODISHALA</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr"/>
+      <c r="C376" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -5398,7 +6160,9 @@
           <t>MPPS KALVALA</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr"/>
+      <c r="C377" t="n">
+        <v>11.476</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -5411,7 +6175,9 @@
           <t>MPUPS LINGAPOOR</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr"/>
+      <c r="C378" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -5424,7 +6190,9 @@
           <t>MPPS ERADAPALLE BC.COL.</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr"/>
+      <c r="C379" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -5437,7 +6205,9 @@
           <t>MPPS CHINTHAGUTTA</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr"/>
+      <c r="C380" t="n">
+        <v>11.136</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -5450,7 +6220,9 @@
           <t>MPPS CHINTHAGUTTA (SC COLONY)</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr"/>
+      <c r="C381" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -5463,7 +6235,9 @@
           <t>MPPS DHARMARAM</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr"/>
+      <c r="C382" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -5476,7 +6250,9 @@
           <t>MPPS GADDAPAKA</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr"/>
+      <c r="C383" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -5489,7 +6265,9 @@
           <t>MPPS MAKTHA</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr"/>
+      <c r="C384" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -5502,7 +6280,9 @@
           <t>MPPS GOLLAPALLY (HO KOTHAGATTU)</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr"/>
+      <c r="C385" t="n">
+        <v>24.386</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -5515,7 +6295,9 @@
           <t>MPPS VENKATESWARAPALLY (HO METPALLY</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr"/>
+      <c r="C386" t="n">
+        <v>17.786</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -5528,7 +6310,9 @@
           <t>MPPS CHINTALAPALLY</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr"/>
+      <c r="C387" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -5541,7 +6325,9 @@
           <t>MPPS DUBBAPALLY (HO KOTHAGATTU)</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr"/>
+      <c r="C388" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -5554,7 +6340,9 @@
           <t>MPPS ARKANDLA</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr"/>
+      <c r="C389" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -5567,7 +6355,9 @@
           <t>MPPS THENUGUPALLY (HO LINGAPUR)</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr"/>
+      <c r="C390" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -5580,7 +6370,9 @@
           <t>MPUPS AMUDALAPALLY</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr"/>
+      <c r="C391" t="n">
+        <v>11.136</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -5593,7 +6385,9 @@
           <t>MPPS IPPALAPALLY</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr"/>
+      <c r="C392" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -5606,7 +6400,9 @@
           <t>MPPS VANKAYAGUDEM</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr"/>
+      <c r="C393" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -5619,7 +6415,9 @@
           <t>MPPS NALLAVENKAIAHPALLY (HO MOLANGU</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr"/>
+      <c r="C394" t="n">
+        <v>24.386</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -5632,7 +6430,9 @@
           <t>MPUPS KACHAPUR</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr"/>
+      <c r="C395" t="n">
+        <v>219.185</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -5645,7 +6445,9 @@
           <t>MPPS THADIKAL (BC COLONY)</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr"/>
+      <c r="C396" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -5658,7 +6460,9 @@
           <t>MPPS KANNAPOOR</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr"/>
+      <c r="C397" t="n">
+        <v>29.188</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -5671,7 +6475,9 @@
           <t>MPPS MUTHARAM</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr"/>
+      <c r="C398" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -5684,7 +6490,9 @@
           <t>MPPS AMBALPUR</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
+      <c r="C399" t="n">
+        <v>165.912</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -5697,7 +6505,9 @@
           <t>MPPS KOTHAGATTU</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr"/>
+      <c r="C400" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -5710,7 +6520,9 @@
           <t>MPPS KESAVAPATNAM COLONY</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr"/>
+      <c r="C401" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -5723,7 +6535,9 @@
           <t>MPUPS RAJAPUR</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr"/>
+      <c r="C402" t="n">
+        <v>221.942</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -5736,7 +6550,9 @@
           <t>MPPS MOLANGUR</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr"/>
+      <c r="C403" t="n">
+        <v>222.065</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -5749,7 +6565,9 @@
           <t>MPUPS KAREEMPETA</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
+      <c r="C404" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -5762,7 +6580,9 @@
           <t>MPPS ERADAPALLE</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr"/>
+      <c r="C405" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -5775,7 +6595,9 @@
           <t>MPPS METPALLY</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr"/>
+      <c r="C406" t="n">
+        <v>38.941</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -5788,7 +6610,9 @@
           <t>MPPS KESAVAPATNAM</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr"/>
+      <c r="C407" t="n">
+        <v>37.305</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -5801,7 +6625,9 @@
           <t>MPPS THADIKAL</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr"/>
+      <c r="C408" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -5814,7 +6640,9 @@
           <t>MPPS BALAIPALLY</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
+      <c r="C409" t="n">
+        <v>31.9</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -5827,7 +6655,9 @@
           <t>MPPS GOLLAPALLY</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
+      <c r="C410" t="n">
+        <v>33.252</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -5840,7 +6670,9 @@
           <t>MPPS GUNDICHERUPALLY</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr"/>
+      <c r="C411" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -5853,7 +6685,9 @@
           <t>MPPS PORANDLA (SC) (BC)</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr"/>
+      <c r="C412" t="n">
+        <v>42.545</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -5866,7 +6700,9 @@
           <t>MPPS JOGAIAHPALLY</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr"/>
+      <c r="C413" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -5879,7 +6715,9 @@
           <t>MPUPS ISLAMNAGAR(UM)</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr"/>
+      <c r="C414" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -5892,7 +6730,9 @@
           <t>MPPS SUBHASHNAGAR</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr"/>
+      <c r="C415" t="n">
+        <v>48.31</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -5905,7 +6745,9 @@
           <t>MPPS LMD COLONY (UM)</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr"/>
+      <c r="C416" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -5918,7 +6760,9 @@
           <t>MPPS NARSINGAPOOR</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr"/>
+      <c r="C417" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -5931,7 +6775,9 @@
           <t>MPPS SANGAMPALLY</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr"/>
+      <c r="C418" t="n">
+        <v>41.505</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -5944,7 +6790,9 @@
           <t>MPPS SAHEBPALLY</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr"/>
+      <c r="C419" t="n">
+        <v>29.714</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -5957,7 +6805,9 @@
           <t>MPUPS THIMMAPUR</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr"/>
+      <c r="C420" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -5970,7 +6820,9 @@
           <t>MPPS RENIKUNTA</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
+      <c r="C421" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -5983,7 +6835,9 @@
           <t>MPPS NUSTULAPUR</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr"/>
+      <c r="C422" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -5996,7 +6850,9 @@
           <t>MPUPS KOTHAPALLY (PN)</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr"/>
+      <c r="C423" t="n">
+        <v>37.335</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -6009,7 +6865,9 @@
           <t>MPPS KURMAPALLI</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr"/>
+      <c r="C424" t="n">
+        <v>35.705</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -6022,7 +6880,9 @@
           <t>MPPS NEDUNUR</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr"/>
+      <c r="C425" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -6035,7 +6895,9 @@
           <t>MPPS JUGUNDLA</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr"/>
+      <c r="C426" t="n">
+        <v>70.974</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -6048,7 +6910,9 @@
           <t>MPPS LMD COLONY (TM)</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr"/>
+      <c r="C427" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -6061,7 +6925,9 @@
           <t>MPPS VACHUNUR</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr"/>
+      <c r="C428" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -6074,7 +6940,9 @@
           <t>MPPS INDRANAGAR</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr"/>
+      <c r="C429" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -6087,7 +6955,9 @@
           <t>MPPS (SC)  RENIKUNTA</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr"/>
+      <c r="C430" t="n">
+        <v>29.714</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -6100,7 +6970,9 @@
           <t>MPPS (SC) MALLAPUR</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr"/>
+      <c r="C431" t="n">
+        <v>36.122</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -6113,7 +6985,9 @@
           <t>MPPS NALLAGONDA</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr"/>
+      <c r="C432" t="n">
+        <v>46.422</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -6126,7 +7000,9 @@
           <t>MPPS MOGILIPALEM</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr"/>
+      <c r="C433" t="n">
+        <v>35.988</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -6139,7 +7015,9 @@
           <t>MPUPS PORANDLA</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr"/>
+      <c r="C434" t="n">
+        <v>31.9</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
